--- a/biology/Botanique/Hardenbergia/Hardenbergia.xlsx
+++ b/biology/Botanique/Hardenbergia/Hardenbergia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hardenbergia est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire d'Australie, qui comprend trois espèces acceptées[2].  
-Ce sont des plantes grimpantes ou des arbrisseaux qui se rencontrent dans les forêts sclérophylles humides à sèches, les formations du type garrigue, les landes et les plaines littorales[3].
-Ces plantes sont utilisées comme plantes ornementales, ou pour la constitution d'écran ou de couvre-sol. Les feuilles servent à préparer une boisson[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hardenbergia est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire d'Australie, qui comprend trois espèces acceptées.  
+Ce sont des plantes grimpantes ou des arbrisseaux qui se rencontrent dans les forêts sclérophylles humides à sèches, les formations du type garrigue, les landes et les plaines littorales.
+Ces plantes sont utilisées comme plantes ornementales, ou pour la constitution d'écran ou de couvre-sol. Les feuilles servent à préparer une boisson. 
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Hardenbergia », est un terme forgé en 1837 par le botaniste anglais George Bentham pour rendre hommage à la comtesse Franziska von Hardenberg, dont le frère, le baron Carl von Hügel (1794-1870),  collecta des plantes en Australie-Occidentale en 1833[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Hardenbergia », est un terme forgé en 1837 par le botaniste anglais George Bentham pour rendre hommage à la comtesse Franziska von Hardenberg, dont le frère, le baron Carl von Hügel (1794-1870),  collecta des plantes en Australie-Occidentale en 1833.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (24 décembre 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (24 décembre 2018) :
 Hardenbergia comptoniana (Andrews) Benth.
 Hardenbergia perbrevidens R.J.F.Hend.
 Hardenbergia violacea (Schneev.) Stearn</t>
